--- a/data/trans_camb/P50_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P50_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,9</t>
+          <t>-7,67</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,8</t>
+          <t>-4,6</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,83</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,15</t>
+          <t>20,45</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>7,32</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-9,38</t>
+          <t>-5,6</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,77</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-6,54</t>
+          <t>-10,05</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-6,49</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-7,9</t>
+          <t>7,56</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>10,53</t>
+          <t>-5,71</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-6,62</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-7,14</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>-2,74</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>14,39</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>1,12</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,91; 1,96</t>
+          <t>-17,32; 2,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,72; 7,61</t>
+          <t>-11,57; 9,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,32; 3,28</t>
+          <t>-14,48; 6,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 25,29</t>
+          <t>-11,16; 11,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,71; 5,42</t>
+          <t>6,15; 35,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 10,03</t>
+          <t>-6,12; 21,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-18,95; 1,14</t>
+          <t>-16,77; 4,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 18,12</t>
+          <t>-9,05; 12,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-13,19; 0,53</t>
+          <t>-19,03; -0,46</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 5,91</t>
+          <t>-18,28; 4,29</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-14,75; -0,57</t>
+          <t>-3,6; 19,25</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,45; 18,94</t>
+          <t>-17,97; 7,44</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-13,53; 0,91</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-6,3; 8,87</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-14,99; -0,2</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-10,34; 5,95</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>5,57; 23,48</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-9,1; 10,9</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-29,14%</t>
+          <t>-28,3%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-9,32%</t>
+          <t>-3,13%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-25,09%</t>
+          <t>-16,98%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>51,0%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-15,82%</t>
+          <t>73,52%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>17,89%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-28,79%</t>
+          <t>-17,19%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,78%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-22,06%</t>
+          <t>-30,85%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-2,83%</t>
+          <t>-19,94%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-26,63%</t>
+          <t>28,98%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>35,51%</t>
+          <t>-14,52%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-22,33%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>1,9%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-24,08%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>-9,23%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>53,45%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>2,78%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-55,76; 8,81</t>
+          <t>-54,39; 11,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-41,82; 34,57</t>
+          <t>-37,41; 43,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-56,78; 14,87</t>
+          <t>-47,95; 27,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,16; 111,56</t>
+          <t>-35,56; 47,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-40,69; 20,59</t>
+          <t>16,87; 167,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-26,44; 37,26</t>
+          <t>-13,51; 64,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-51,08; 4,22</t>
+          <t>-44,8; 17,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 64,95</t>
+          <t>-24,58; 46,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-40,77; 2,48</t>
+          <t>-50,76; -2,36</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-25,89; 22,07</t>
+          <t>-48,46; 16,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-46,18; -1,23</t>
+          <t>-12,08; 97,74</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,67; 72,67</t>
+          <t>-39,92; 24,51</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-41,83; 3,44</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-19,6; 35,97</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-44,91; -0,39</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-32,55; 23,71</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>19,05; 108,23</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-20,29; 31,03</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,4</t>
+          <t>-5,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,41</t>
+          <t>-8,78</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,02</t>
+          <t>19,55</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-4,64</t>
+          <t>-5,11</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,92</t>
+          <t>-2,87</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,16</t>
+          <t>-4,61</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-3,87</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>10,32</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>8,7</t>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-2,83</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-4,45</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-1,81</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>-5,74</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>15,1</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>0,67</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,76; 13,13</t>
+          <t>-13,44; 14,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,41; 6,89</t>
+          <t>-18,61; 5,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 12,77</t>
+          <t>-12,21; 15,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 23,59</t>
+          <t>-23,04; 3,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,89; 4,96</t>
+          <t>5,81; 33,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 6,42</t>
+          <t>-13,13; 16,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,54; 4,65</t>
+          <t>-15,18; 4,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 18,04</t>
+          <t>-11,98; 6,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 6,09</t>
+          <t>-14,18; 4,22</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 3,28</t>
+          <t>-12,2; 7,45</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 6,48</t>
+          <t>0,06; 21,35</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 17,18</t>
+          <t>-11,4; 10,83</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-11,8; 6,51</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-12,13; 2,89</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-9,82; 7,06</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-14,17; 2,57</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>6,03; 23,72</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-8,13; 9,73</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,92%</t>
+          <t>-2,09%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-14,42%</t>
+          <t>-15,83%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,61%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,15%</t>
+          <t>-23,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-14,34%</t>
+          <t>68,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-6,37%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-13,27%</t>
+          <t>-14,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22,64%</t>
+          <t>-8,2%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-8,73%</t>
+          <t>-13,18%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-10,68%</t>
+          <t>-6,67%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-6,71%</t>
+          <t>31,6%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>23,99%</t>
+          <t>0,15%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-7,81%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-12,28%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-5,01%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>-15,84%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>49,5%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>1,5%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-31,78; 42,34</t>
+          <t>-31,42; 48,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-39,35; 23,0</t>
+          <t>-41,34; 20,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,44; 40,87</t>
+          <t>-29,22; 50,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 75,51</t>
+          <t>-51,52; 11,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,76; 16,22</t>
+          <t>17,45; 153,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,65; 21,4</t>
+          <t>-23,95; 39,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-36,35; 15,31</t>
+          <t>-37,9; 16,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 59,76</t>
+          <t>-30,3; 20,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-28,93; 19,65</t>
+          <t>-34,76; 15,16</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-28,21; 10,53</t>
+          <t>-30,69; 24,44</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-26,74; 19,83</t>
+          <t>0,04; 79,02</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 52,84</t>
+          <t>-23,14; 28,83</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-29,44; 21,06</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-29,61; 9,26</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-24,56; 22,54</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-35,85; 8,51</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>17,05; 91,16</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-16,52; 24,24</t>
         </is>
       </c>
     </row>
@@ -1208,12 +1496,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-8,21</t>
+          <t>-8,72</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1223,47 +1511,77 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,51</t>
+          <t>-3,21</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-8,81</t>
+          <t>8,84</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-3,21</t>
+          <t>-8,48</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>15,38</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-5,79</t>
+          <t>-3,45</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-2,51</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>-5,56</t>
+          <t>16,13</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>10,18</t>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-5,88</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-2,9</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-5,69</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-1,13</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>12,18</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 9,58</t>
+          <t>-12,71; 6,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,88; 0,08</t>
+          <t>-17,67; -0,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,98; 2,0</t>
+          <t>-17,19; 1,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 15,08</t>
+          <t>-12,69; 7,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,43; -1,53</t>
+          <t>-1,16; 19,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 9,71</t>
+          <t>-10,46; 9,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 3,48</t>
+          <t>-15,03; -1,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,43; 23,66</t>
+          <t>-4,46; 9,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 1,06</t>
+          <t>-10,35; 2,86</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 2,99</t>
+          <t>-7,04; 8,16</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 0,15</t>
+          <t>7,1; 26,02</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,63; 16,69</t>
+          <t>-8,44; 10,7</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-11,33; 0,35</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-8,39; 2,59</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-11,42; 0,03</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-7,21; 4,69</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>5,24; 19,01</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>-5,67; 7,97</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-8,26%</t>
+          <t>-9,53%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-24,61%</t>
+          <t>-26,12%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-24,02%</t>
+          <t>-24,03%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>-9,63%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-27,26%</t>
+          <t>29,32%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-9,95%</t>
+          <t>-26,25%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>47,59%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-17,64%</t>
+          <t>-10,69%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-7,64%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>-16,93%</t>
+          <t>48,63%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>30,99%</t>
+          <t>3,35%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-17,92%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-8,84%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-17,32%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-3,44%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>38,41%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>2,03%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1790,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-31,96; 33,5</t>
+          <t>-33,77; 23,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-41,91; 1,48</t>
+          <t>-46,08; -1,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-45,53; 6,86</t>
+          <t>-45,29; 4,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 53,2</t>
+          <t>-34,62; 26,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-43,85; -5,1</t>
+          <t>-3,07; 78,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 34,34</t>
+          <t>-23,93; 28,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-28,47; 12,8</t>
+          <t>-42,26; -4,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>20,98; 85,23</t>
+          <t>-12,99; 33,08</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-33,36; 3,81</t>
+          <t>-28,6; 9,96</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-23,91; 9,98</t>
+          <t>-18,87; 28,63</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-31,72; 0,5</t>
+          <t>18,33; 87,14</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,29; 55,03</t>
+          <t>-15,86; 24,46</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-31,86; 1,14</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-23,59; 8,7</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-32,19; -0,01</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-20,43; 15,92</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>14,59; 65,12</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>-12,63; 19,33</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,71</t>
+          <t>-4,42</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,76</t>
+          <t>-4,58</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15,89</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-8,77</t>
+          <t>15,28</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-8,5</t>
+          <t>-3,28</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-4,98</t>
+          <t>-8,52</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,47</t>
+          <t>-9,03</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-5,65</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-6,23</t>
+          <t>-6,63</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-4,48</t>
+          <t>13,41</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>11,51</t>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-5,76</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-6,86</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-4,79</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>-4,8</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>14,3</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>-2,02</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 7,29</t>
+          <t>-11,13; 6,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,96; 4,82</t>
+          <t>-12,13; 4,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,5; 5,04</t>
+          <t>-13,1; 3,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,47; 24,87</t>
+          <t>-11,21; 6,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-15,86; -0,79</t>
+          <t>4,91; 25,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,77; -1,09</t>
+          <t>-14,08; 6,7</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 2,02</t>
+          <t>-15,28; -0,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 16,14</t>
+          <t>-16,52; -1,77</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,38; -0,02</t>
+          <t>-11,47; 3,16</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-13,02; -1,49</t>
+          <t>-14,54; 1,11</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 0,92</t>
+          <t>4,99; 22,05</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,17; 17,97</t>
+          <t>-10,35; 7,7</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-11,55; 0,15</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-13,0; -1,85</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-10,62; -0,03</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-9,94; 1,53</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>7,24; 20,3</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-8,95; 5,15</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-7,53%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-12,03%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-12,46%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-7,25%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>44,82%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>-6,22%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-10,08%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-10,22%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>43,23%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-19,29%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>-18,71%</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-10,95%</t>
+          <t>-18,74%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>-19,87%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-13,69%</t>
+          <t>-10,57%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-15,1%</t>
+          <t>-14,58%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-10,85%</t>
+          <t>34,55%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>27,91%</t>
+          <t>-1,3%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-13,97%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-16,62%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-11,6%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>-11,64%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>39,23%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>-3,82%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +2186,92 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,27; 21,74</t>
+          <t>-27,53; 17,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-29,81; 14,48</t>
+          <t>-30,04; 12,71</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-30,4; 14,95</t>
+          <t>-32,21; 10,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>15,51; 73,98</t>
+          <t>-28,47; 21,33</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-33,06; -2,0</t>
+          <t>11,0; 87,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-32,96; -2,79</t>
+          <t>-23,87; 14,66</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-25,64; 5,11</t>
+          <t>-31,66; -0,04</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 39,93</t>
+          <t>-33,13; -3,61</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-25,49; 0,06</t>
+          <t>-23,3; 7,75</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-28,55; -3,92</t>
+          <t>-29,74; 2,47</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-22,8; 2,28</t>
+          <t>12,1; 64,24</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>12,03; 46,66</t>
+          <t>-17,66; 16,17</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-26,29; 0,31</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-29,65; -4,86</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-24,28; 0,09</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-22,99; 4,24</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>17,89; 60,15</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-15,62; 10,85</t>
         </is>
       </c>
     </row>
@@ -1760,62 +2288,92 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>20,67</t>
+          <t>6,36</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-5,48</t>
+          <t>13,9</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-5,36</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-2,64</t>
+          <t>-6,9</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>13,83</t>
+          <t>-5,61</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-3,41</t>
+          <t>-2,91</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>17,07</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>17,38</t>
+          <t>5,28</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-4,36</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-2,75</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-0,58</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>4,29</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>15,53</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>2,45</t>
         </is>
       </c>
     </row>
@@ -1828,62 +2386,92 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,49; 8,58</t>
+          <t>-10,73; 8,08</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 7,95</t>
+          <t>-8,28; 8,81</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 9,79</t>
+          <t>-6,83; 10,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>10,16; 30,68</t>
+          <t>-3,4; 15,56</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-14,63; 3,87</t>
+          <t>4,24; 24,59</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,03; 2,8</t>
+          <t>-11,12; 9,45</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 5,57</t>
+          <t>-15,85; 2,76</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,19; 22,99</t>
+          <t>-14,69; 3,67</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 3,02</t>
+          <t>-12,39; 6,25</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 3,35</t>
+          <t>-8,14; 12,09</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 5,59</t>
+          <t>6,14; 26,79</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>10,86; 24,83</t>
+          <t>-4,75; 14,13</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-10,97; 2,01</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-8,8; 3,16</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-6,58; 6,26</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>-2,82; 11,14</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>8,15; 21,65</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>-4,58; 9,31</t>
         </is>
       </c>
     </row>
@@ -1896,62 +2484,92 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-4,93%</t>
+          <t>-6,31%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-0,89%</t>
+          <t>0,01%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>64,53%</t>
+          <t>19,86%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-13,22%</t>
+          <t>36,19%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-12,93%</t>
+          <t>-0,77%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-6,37%</t>
+          <t>-16,63%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>33,35%</t>
+          <t>-13,53%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-9,31%</t>
+          <t>-7,01%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>-7,54%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>-1,74%</t>
+          <t>39,25%</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>47,36%</t>
+          <t>9,55%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-11,88%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-7,49%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-1,58%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>11,69%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>37,89%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>4,52%</t>
         </is>
       </c>
     </row>
@@ -1964,62 +2582,92 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-28,42; 32,11</t>
+          <t>-30,76; 28,22</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-25,09; 29,32</t>
+          <t>-23,39; 31,3</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-21,26; 35,92</t>
+          <t>-18,46; 37,23</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>27,46; 111,99</t>
+          <t>-10,17; 56,13</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-32,57; 10,33</t>
+          <t>9,57; 73,77</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-30,34; 7,55</t>
+          <t>-19,05; 20,79</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-25,6; 14,93</t>
+          <t>-34,27; 7,51</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>9,53; 61,89</t>
+          <t>-30,57; 10,45</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-25,29; 8,43</t>
+          <t>-26,12; 17,8</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>-23,31; 10,47</t>
+          <t>-18,16; 32,26</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>-17,83; 16,83</t>
+          <t>12,83; 72,3</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>27,11; 76,68</t>
+          <t>-7,95; 27,57</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-27,68; 6,11</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-22,32; 9,4</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-16,87; 18,84</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>-7,17; 33,84</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>18,55; 58,17</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>-7,76; 18,57</t>
         </is>
       </c>
     </row>
@@ -2036,62 +2684,92 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-8,66</t>
+          <t>-8,94</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-8,98</t>
+          <t>-9,63</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>-10,2</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-5,79</t>
+          <t>22,08</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-8,2</t>
+          <t>11,05</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-9,1</t>
+          <t>-4,7</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-8,44</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-7,06</t>
+          <t>-7,69</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>-4,75</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>-9,06</t>
+          <t>16,45</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>16,03</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-6,56</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-5,21</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>-8,55</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>-5,64</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>19,06</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>13,92</t>
         </is>
       </c>
     </row>
@@ -2104,62 +2782,92 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-19,19; 0,93</t>
+          <t>-18,42; 0,36</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 11,28</t>
+          <t>-12,55; 9,3</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-18,83; 2,53</t>
+          <t>-19,27; 1,13</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 10,02</t>
+          <t>-20,62; -0,52</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-14,54; 5,15</t>
+          <t>11,35; 33,51</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-17,5; 0,3</t>
+          <t>-0,76; 22,27</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-18,65; 0,35</t>
+          <t>-13,56; 6,05</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 10,11</t>
+          <t>-17,05; 0,18</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-14,12; 0,14</t>
+          <t>-16,51; 2,4</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 1,03</t>
+          <t>-12,14; 10,07</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>-15,73; -1,83</t>
+          <t>4,89; 28,8</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 7,99</t>
+          <t>3,69; 28,88</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-12,89; 0,38</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-12,08; 1,51</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-15,59; -1,27</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>-13,22; 2,44</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>10,53; 27,76</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>4,83; 22,91</t>
         </is>
       </c>
     </row>
@@ -2172,62 +2880,92 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-24,64%</t>
+          <t>-25,43%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-0,81%</t>
+          <t>-2,79%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-25,55%</t>
+          <t>-27,41%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>-29,03%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-14,66%</t>
+          <t>88,54%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-20,78%</t>
+          <t>30,72%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-23,04%</t>
+          <t>-11,9%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-3,83%</t>
+          <t>-21,39%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-18,78%</t>
+          <t>-19,48%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>-12,64%</t>
+          <t>-4,92%</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>-24,08%</t>
+          <t>43,83%</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>-1,3%</t>
+          <t>42,23%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-17,45%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-13,84%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>-22,73%</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>-14,99%</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>59,63%</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>37,5%</t>
         </is>
       </c>
     </row>
@@ -2240,62 +2978,92 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-47,85; 3,35</t>
+          <t>-46,37; 1,53</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-29,39; 37,58</t>
+          <t>-31,26; 30,74</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-48,17; 9,06</t>
+          <t>-49,4; 4,49</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-27,22; 33,09</t>
+          <t>-51,0; 0,83</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-33,99; 14,86</t>
+          <t>37,01; 185,97</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-39,09; 0,91</t>
+          <t>-2,21; 76,48</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-42,98; 1,05</t>
+          <t>-31,71; 16,93</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-27,86; 29,46</t>
+          <t>-39,66; 0,65</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-34,92; 0,67</t>
+          <t>-38,26; 7,02</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>-30,42; 2,68</t>
+          <t>-28,1; 28,64</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>-38,81; -5,27</t>
+          <t>10,34; 93,04</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>-20,95; 23,6</t>
+          <t>7,33; 92,83</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-32,13; 1,11</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-29,37; 4,66</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-38,75; -4,08</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>-32,03; 7,6</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>28,62; 101,31</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>11,11; 72,55</t>
         </is>
       </c>
     </row>
@@ -2312,62 +3080,92 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-3,96</t>
+          <t>-4,06</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-3,66</t>
+          <t>-3,81</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-4,5</t>
+          <t>-4,22</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>10,94</t>
+          <t>-3,12</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-6,75</t>
+          <t>16,28</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-3,7</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-5,84</t>
+          <t>-6,71</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>8,05</t>
+          <t>-3,88</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-5,38</t>
+          <t>-5,72</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>-3,68</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>-5,17</t>
+          <t>14,0</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>9,46</t>
+          <t>3,49</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>-5,4</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>-3,84</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>-4,98</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>-2,78</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>15,1</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>2,87</t>
         </is>
       </c>
     </row>
@@ -2380,62 +3178,92 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 0,78</t>
+          <t>-8,15; -0,21</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 0,19</t>
+          <t>-7,99; 0,19</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-8,84; -0,1</t>
+          <t>-8,41; 0,46</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>6,28; 15,37</t>
+          <t>-7,14; 1,68</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-10,52; -2,99</t>
+          <t>11,71; 20,8</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-6,89; -0,04</t>
+          <t>-2,57; 7,61</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-9,68; -2,44</t>
+          <t>-10,0; -3,06</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>3,69; 12,05</t>
+          <t>-7,36; -0,59</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-8,14; -2,48</t>
+          <t>-9,17; -2,06</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>-6,54; -1,02</t>
+          <t>-6,37; 1,74</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>-7,92; -2,34</t>
+          <t>9,95; 18,03</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>6,18; 12,47</t>
+          <t>-0,81; 7,56</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-8,27; -2,72</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-6,55; -1,17</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-7,8; -2,05</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>-5,72; 0,15</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>11,46; 18,41</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 6,08</t>
         </is>
       </c>
     </row>
@@ -2448,62 +3276,92 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-11,7%</t>
+          <t>-12,01%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-10,84%</t>
+          <t>-11,28%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-13,3%</t>
+          <t>-12,48%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>32,35%</t>
+          <t>-9,23%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-17,78%</t>
+          <t>53,06%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-9,73%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-15,36%</t>
+          <t>-17,65%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>21,2%</t>
+          <t>-10,2%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-14,97%</t>
+          <t>-15,05%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>-10,23%</t>
+          <t>-6,49%</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>-14,39%</t>
+          <t>39,42%</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>26,32%</t>
+          <t>7,57%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>-15,04%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>-10,68%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>-13,85%</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>-7,73%</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>45,54%</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>6,32%</t>
         </is>
       </c>
     </row>
@@ -2516,78 +3374,115 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-22,3; 2,68</t>
+          <t>-23,29; -0,8</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-21,45; 0,61</t>
+          <t>-22,41; 0,55</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-24,86; -0,27</t>
+          <t>-23,58; 1,64</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>17,47; 47,43</t>
+          <t>-20,07; 5,22</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-26,52; -7,95</t>
+          <t>35,32; 74,42</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-17,56; -0,11</t>
+          <t>-5,47; 18,26</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-24,29; -6,68</t>
+          <t>-25,12; -8,25</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>9,39; 33,05</t>
+          <t>-18,64; -1,58</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-21,73; -6,95</t>
+          <t>-23,17; -5,73</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>-17,49; -2,98</t>
+          <t>-16,24; 4,84</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>-21,44; -6,8</t>
+          <t>26,28; 54,59</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>16,79; 36,44</t>
+          <t>-2,13; 17,17</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-22,11; -7,91</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-17,53; -3,48</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-20,79; -5,81</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>-15,35; 0,21</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>32,84; 58,69</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>-1,51; 13,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
